--- a/public/sample/sample_stk30.xlsx
+++ b/public/sample/sample_stk30.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sangmosoft/uhyun/work/bw/bluewolf/public/sample/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bigca\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55F29588-BCBE-734B-87DF-B310814EFD51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{05316F9E-881B-4F85-89BB-80339AC96737}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-47040" yWindow="10940" windowWidth="21600" windowHeight="15040" xr2:uid="{1B53398C-9A57-4E53-B0D1-7E64AE301025}"/>
+    <workbookView xWindow="4260" yWindow="3720" windowWidth="20760" windowHeight="15435" xr2:uid="{1B53398C-9A57-4E53-B0D1-7E64AE301025}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -45,18 +45,18 @@
   </si>
   <si>
     <t>상품코드</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>수량</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -68,13 +68,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
@@ -464,46 +457,43 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.83203125" customWidth="1"/>
-    <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" customWidth="1"/>
+    <col min="1" max="1" width="21.875" customWidth="1"/>
+    <col min="2" max="2" width="13" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
       </c>
-      <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="2">
         <v>2</v>
       </c>
-      <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
     </row>
